--- a/CashFlow/CB_cashflow.xlsx
+++ b/CashFlow/CB_cashflow.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>645000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>657000000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>-1667000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>165000000.0</v>
@@ -636,10 +632,8 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>-1059000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>-450000000.0</v>
@@ -765,10 +759,8 @@
           <t>Accounts Payable Change</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>7341000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>6183000000.0</v>
@@ -894,10 +886,8 @@
           <t>Income tax paid</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>38000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>46000000.0</v>
@@ -1170,10 +1160,8 @@
           <t>Other operating activities</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>-701000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-349000000.0</v>
@@ -1299,10 +1287,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>10874000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10692000000.0</v>
@@ -1444,7 +1430,7 @@
         </is>
       </c>
       <c r="E11" s="0" t="n">
-        <v>-1579000000.0</v>
+        <v>-3129000000.0</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>-1579000000.0</v>
@@ -1587,10 +1573,8 @@
           <t>Short Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>-38000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-81000000.0</v>
@@ -1732,10 +1716,8 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>-6248000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>-5953000000.0</v>
@@ -1747,7 +1729,7 @@
         <v>-4513000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-3409000000.0</v>
+        <v>-4959000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>-4177000000.0</v>
@@ -1861,10 +1843,8 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>967000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>-473000000.0</v>
@@ -1990,10 +1970,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>-8459000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>-8428000000.0</v>
@@ -2256,10 +2234,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-574000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-378000000.0</v>
@@ -2271,7 +2247,7 @@
         <v>-939000000.0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>-801000000.0</v>
+        <v>-1753000000.0</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>-1326000000.0</v>
@@ -2385,10 +2361,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>-1401000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-1388000000.0</v>
@@ -2514,10 +2488,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>86000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-3000000.0</v>
@@ -2663,10 +2635,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>-2249000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-2082000000.0</v>
@@ -2792,10 +2762,8 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>17000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>8000000.0</v>
@@ -2921,10 +2889,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>183000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>190000000.0</v>
@@ -3050,10 +3016,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>1836000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1646000000.0</v>
@@ -3179,10 +3143,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>2019000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1836000000.0</v>
@@ -3309,7 +3271,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-1049000000.0</v>
+        <v>-1401000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-1388000000.0</v>
@@ -3435,10 +3397,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>6320000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>5779000000.0</v>
@@ -3564,10 +3524,8 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>-6286000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-6034000000.0</v>
@@ -3579,7 +3537,7 @@
         <v>-4694000000.0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>-3935000000.0</v>
+        <v>-5485000000.0</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>-5294000000.0</v>
@@ -3693,10 +3651,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>-574000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-378000000.0</v>
@@ -3708,7 +3664,7 @@
         <v>-939000000.0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>-801000000.0</v>
+        <v>-1753000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>-1326000000.0</v>
